--- a/task_1.xlsx
+++ b/task_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ituniversity-my.sharepoint.com/personal/srde_itu_dk/Documents/II/FYP/p02/fyp2022p02gj2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC1048ED495A61A05BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E59120F-0833-43EE-A480-EC523C1F8EAF}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC1048ED495A61A05BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{173F4C54-58F1-472E-8736-45BA5DBF28A5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="2690" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>image_id</t>
   </si>
@@ -43,9 +43,6 @@
     <t>melanoma</t>
   </si>
   <si>
-    <t>seborrheic_keratosis</t>
-  </si>
-  <si>
     <t>ISIC_0001769</t>
   </si>
   <si>
@@ -497,6 +494,21 @@
   </si>
   <si>
     <t>manual ratings</t>
+  </si>
+  <si>
+    <t>kate</t>
+  </si>
+  <si>
+    <t>julia</t>
+  </si>
+  <si>
+    <t>jakob</t>
+  </si>
+  <si>
+    <t>keerthi</t>
+  </si>
+  <si>
+    <t>altea</t>
   </si>
 </sst>
 </file>
@@ -814,783 +826,827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
     <col min="3" max="3" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/task_1.xlsx
+++ b/task_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ituniversity-my.sharepoint.com/personal/srde_itu_dk/Documents/II/FYP/p02/fyp2022p02gj2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakot\Desktop\Semester 2\First Year Project\SecondProject\fyp2022p02gj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC1048ED495A61A05BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{173F4C54-58F1-472E-8736-45BA5DBF28A5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C232A7C-5DC6-427A-83CE-D6CDE17D51D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2690" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -829,22 +829,22 @@
   <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>153</v>
       </c>
@@ -869,7 +869,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -924,729 +924,1164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/task_1.xlsx
+++ b/task_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakot\Desktop\Semester 2\First Year Project\SecondProject\fyp2022p02gj2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julik\Documents\GitHub\fyp2022p02gj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C232A7C-5DC6-427A-83CE-D6CDE17D51D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDDE980-9607-421F-A0E6-9618C0DDC956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10908" windowHeight="10248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,6 +890,9 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -901,6 +904,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -912,6 +918,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
         <v>0</v>
       </c>
@@ -920,6 +929,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -928,6 +940,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -936,6 +951,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -944,6 +962,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
         <v>0</v>
       </c>
@@ -952,6 +973,9 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>0</v>
       </c>
@@ -960,6 +984,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13">
         <v>0</v>
       </c>
@@ -968,6 +995,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
         <v>0</v>
       </c>
@@ -976,6 +1006,9 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
         <v>0</v>
       </c>
@@ -984,6 +1017,9 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
         <v>0</v>
       </c>
@@ -992,6 +1028,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -1000,6 +1039,9 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
         <v>0</v>
       </c>
@@ -1008,6 +1050,9 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
         <v>0</v>
       </c>
@@ -1016,6 +1061,9 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
@@ -1024,6 +1072,9 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="D21">
         <v>1</v>
       </c>
@@ -1032,6 +1083,9 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22">
         <v>1</v>
       </c>
@@ -1040,6 +1094,9 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
         <v>0</v>
       </c>
@@ -1048,6 +1105,9 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
         <v>0</v>
       </c>
@@ -1056,6 +1116,9 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25">
         <v>0</v>
       </c>
@@ -1064,6 +1127,9 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
       <c r="D26">
         <v>0</v>
       </c>
@@ -1072,6 +1138,9 @@
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
@@ -1080,6 +1149,9 @@
       <c r="A28" t="s">
         <v>26</v>
       </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -1088,6 +1160,9 @@
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
@@ -1096,6 +1171,9 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="D30">
         <v>1</v>
       </c>
@@ -1104,6 +1182,9 @@
       <c r="A31" t="s">
         <v>29</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
       <c r="D31">
         <v>0</v>
       </c>
@@ -1112,6 +1193,9 @@
       <c r="A32" t="s">
         <v>30</v>
       </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
@@ -1120,6 +1204,9 @@
       <c r="A33" t="s">
         <v>31</v>
       </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
@@ -1128,6 +1215,9 @@
       <c r="A34" t="s">
         <v>32</v>
       </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
       <c r="D34">
         <v>1</v>
       </c>
@@ -1136,6 +1226,9 @@
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
       <c r="D35">
         <v>0</v>
       </c>
@@ -1144,6 +1237,9 @@
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
       <c r="D36">
         <v>0</v>
       </c>
@@ -1152,6 +1248,9 @@
       <c r="A37" t="s">
         <v>35</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
       <c r="D37">
         <v>1</v>
       </c>
@@ -1160,6 +1259,9 @@
       <c r="A38" t="s">
         <v>36</v>
       </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
       <c r="D38">
         <v>1</v>
       </c>
@@ -1168,6 +1270,9 @@
       <c r="A39" t="s">
         <v>37</v>
       </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
       <c r="D39">
         <v>2</v>
       </c>
@@ -1176,6 +1281,9 @@
       <c r="A40" t="s">
         <v>38</v>
       </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
       <c r="D40">
         <v>2</v>
       </c>
@@ -1184,6 +1292,9 @@
       <c r="A41" t="s">
         <v>39</v>
       </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
       <c r="D41">
         <v>0</v>
       </c>
@@ -1192,6 +1303,9 @@
       <c r="A42" t="s">
         <v>40</v>
       </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
       <c r="D42">
         <v>1</v>
       </c>
@@ -1200,6 +1314,9 @@
       <c r="A43" t="s">
         <v>41</v>
       </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
       <c r="D43">
         <v>1</v>
       </c>
@@ -1208,6 +1325,9 @@
       <c r="A44" t="s">
         <v>42</v>
       </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
       <c r="D44">
         <v>0</v>
       </c>
@@ -1216,6 +1336,9 @@
       <c r="A45" t="s">
         <v>43</v>
       </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
       <c r="D45">
         <v>0</v>
       </c>
@@ -1224,6 +1347,9 @@
       <c r="A46" t="s">
         <v>44</v>
       </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
       <c r="D46">
         <v>2</v>
       </c>
@@ -1232,6 +1358,9 @@
       <c r="A47" t="s">
         <v>45</v>
       </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
       <c r="D47">
         <v>1</v>
       </c>
@@ -1240,6 +1369,9 @@
       <c r="A48" t="s">
         <v>46</v>
       </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
       <c r="D48">
         <v>1</v>
       </c>
@@ -1248,6 +1380,9 @@
       <c r="A49" t="s">
         <v>47</v>
       </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
       <c r="D49">
         <v>2</v>
       </c>
@@ -1256,6 +1391,9 @@
       <c r="A50" t="s">
         <v>48</v>
       </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
       <c r="D50">
         <v>2</v>
       </c>
@@ -1264,6 +1402,9 @@
       <c r="A51" t="s">
         <v>49</v>
       </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
       <c r="D51">
         <v>2</v>
       </c>
@@ -1272,6 +1413,9 @@
       <c r="A52" t="s">
         <v>50</v>
       </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
       <c r="D52">
         <v>0</v>
       </c>
@@ -1280,6 +1424,9 @@
       <c r="A53" t="s">
         <v>51</v>
       </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
       <c r="D53">
         <v>2</v>
       </c>
@@ -1288,6 +1435,9 @@
       <c r="A54" t="s">
         <v>52</v>
       </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
       <c r="D54">
         <v>2</v>
       </c>
@@ -1296,6 +1446,9 @@
       <c r="A55" t="s">
         <v>53</v>
       </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
       <c r="D55">
         <v>1</v>
       </c>
@@ -1304,6 +1457,9 @@
       <c r="A56" t="s">
         <v>54</v>
       </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
       <c r="D56">
         <v>2</v>
       </c>
@@ -1312,6 +1468,9 @@
       <c r="A57" t="s">
         <v>55</v>
       </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
       <c r="D57">
         <v>2</v>
       </c>
@@ -1320,6 +1479,9 @@
       <c r="A58" t="s">
         <v>56</v>
       </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
       <c r="D58">
         <v>1</v>
       </c>
@@ -1328,6 +1490,9 @@
       <c r="A59" t="s">
         <v>57</v>
       </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
       <c r="D59">
         <v>1</v>
       </c>
@@ -1336,6 +1501,9 @@
       <c r="A60" t="s">
         <v>58</v>
       </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
       <c r="D60">
         <v>0</v>
       </c>
@@ -1344,6 +1512,9 @@
       <c r="A61" t="s">
         <v>59</v>
       </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
       <c r="D61">
         <v>1</v>
       </c>
@@ -1352,6 +1523,9 @@
       <c r="A62" t="s">
         <v>60</v>
       </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
       <c r="D62">
         <v>1</v>
       </c>
@@ -1360,6 +1534,9 @@
       <c r="A63" t="s">
         <v>61</v>
       </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
       <c r="D63">
         <v>2</v>
       </c>
@@ -1368,6 +1545,9 @@
       <c r="A64" t="s">
         <v>62</v>
       </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
       <c r="D64">
         <v>1</v>
       </c>
@@ -1376,6 +1556,9 @@
       <c r="A65" t="s">
         <v>63</v>
       </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
       <c r="D65">
         <v>2</v>
       </c>
@@ -1384,6 +1567,9 @@
       <c r="A66" t="s">
         <v>64</v>
       </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
       <c r="D66">
         <v>1</v>
       </c>
@@ -1392,6 +1578,9 @@
       <c r="A67" t="s">
         <v>65</v>
       </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
       <c r="D67">
         <v>0</v>
       </c>
@@ -1400,6 +1589,9 @@
       <c r="A68" t="s">
         <v>66</v>
       </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
       <c r="D68">
         <v>1</v>
       </c>
@@ -1408,6 +1600,9 @@
       <c r="A69" t="s">
         <v>67</v>
       </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
       <c r="D69">
         <v>0</v>
       </c>
@@ -1416,6 +1611,9 @@
       <c r="A70" t="s">
         <v>68</v>
       </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
       <c r="D70">
         <v>0</v>
       </c>
@@ -1424,6 +1622,9 @@
       <c r="A71" t="s">
         <v>69</v>
       </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
       <c r="D71">
         <v>1</v>
       </c>
@@ -1432,6 +1633,9 @@
       <c r="A72" t="s">
         <v>70</v>
       </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
       <c r="D72">
         <v>2</v>
       </c>
@@ -1440,6 +1644,9 @@
       <c r="A73" t="s">
         <v>71</v>
       </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
       <c r="D73">
         <v>0</v>
       </c>
@@ -1448,6 +1655,9 @@
       <c r="A74" t="s">
         <v>72</v>
       </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
       <c r="D74">
         <v>2</v>
       </c>
@@ -1456,6 +1666,9 @@
       <c r="A75" t="s">
         <v>73</v>
       </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
       <c r="D75">
         <v>1</v>
       </c>
@@ -1464,6 +1677,9 @@
       <c r="A76" t="s">
         <v>74</v>
       </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
       <c r="D76">
         <v>1</v>
       </c>
@@ -1472,6 +1688,9 @@
       <c r="A77" t="s">
         <v>75</v>
       </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
       <c r="D77">
         <v>1</v>
       </c>
@@ -1480,6 +1699,9 @@
       <c r="A78" t="s">
         <v>76</v>
       </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
       <c r="D78">
         <v>2</v>
       </c>
@@ -1488,6 +1710,9 @@
       <c r="A79" t="s">
         <v>77</v>
       </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
       <c r="D79">
         <v>1</v>
       </c>
@@ -1496,6 +1721,9 @@
       <c r="A80" t="s">
         <v>78</v>
       </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
       <c r="D80">
         <v>1</v>
       </c>
@@ -1504,6 +1732,9 @@
       <c r="A81" t="s">
         <v>79</v>
       </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
       <c r="D81">
         <v>0</v>
       </c>
@@ -1512,6 +1743,9 @@
       <c r="A82" t="s">
         <v>80</v>
       </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
       <c r="D82">
         <v>0</v>
       </c>
@@ -1520,6 +1754,9 @@
       <c r="A83" t="s">
         <v>81</v>
       </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
       <c r="D83">
         <v>1</v>
       </c>
@@ -1528,6 +1765,9 @@
       <c r="A84" t="s">
         <v>82</v>
       </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
       <c r="D84">
         <v>0</v>
       </c>
@@ -1536,6 +1776,9 @@
       <c r="A85" t="s">
         <v>83</v>
       </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
       <c r="D85">
         <v>0</v>
       </c>
@@ -1544,6 +1787,9 @@
       <c r="A86" t="s">
         <v>84</v>
       </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
       <c r="D86">
         <v>2</v>
       </c>
@@ -1552,6 +1798,9 @@
       <c r="A87" t="s">
         <v>85</v>
       </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
       <c r="D87">
         <v>0</v>
       </c>
@@ -1560,6 +1809,9 @@
       <c r="A88" t="s">
         <v>86</v>
       </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
       <c r="D88">
         <v>1</v>
       </c>
@@ -1568,6 +1820,9 @@
       <c r="A89" t="s">
         <v>87</v>
       </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
       <c r="D89">
         <v>2</v>
       </c>
@@ -1576,6 +1831,9 @@
       <c r="A90" t="s">
         <v>88</v>
       </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
       <c r="D90">
         <v>0</v>
       </c>
@@ -1584,6 +1842,9 @@
       <c r="A91" t="s">
         <v>89</v>
       </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
       <c r="D91">
         <v>0</v>
       </c>
@@ -1592,6 +1853,9 @@
       <c r="A92" t="s">
         <v>90</v>
       </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
       <c r="D92">
         <v>1</v>
       </c>
@@ -1600,6 +1864,9 @@
       <c r="A93" t="s">
         <v>91</v>
       </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
       <c r="D93">
         <v>0</v>
       </c>
@@ -1608,6 +1875,9 @@
       <c r="A94" t="s">
         <v>92</v>
       </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
       <c r="D94">
         <v>1</v>
       </c>
@@ -1616,6 +1886,9 @@
       <c r="A95" t="s">
         <v>93</v>
       </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
       <c r="D95">
         <v>0</v>
       </c>
@@ -1624,6 +1897,9 @@
       <c r="A96" t="s">
         <v>94</v>
       </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
       <c r="D96">
         <v>1</v>
       </c>
@@ -1632,6 +1908,9 @@
       <c r="A97" t="s">
         <v>95</v>
       </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
       <c r="D97">
         <v>0</v>
       </c>
@@ -1640,6 +1919,9 @@
       <c r="A98" t="s">
         <v>96</v>
       </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
       <c r="D98">
         <v>2</v>
       </c>
@@ -1648,6 +1930,9 @@
       <c r="A99" t="s">
         <v>97</v>
       </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
       <c r="D99">
         <v>1</v>
       </c>
@@ -1656,6 +1941,9 @@
       <c r="A100" t="s">
         <v>98</v>
       </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
       <c r="D100">
         <v>2</v>
       </c>
@@ -1664,6 +1952,9 @@
       <c r="A101" t="s">
         <v>99</v>
       </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
       <c r="D101">
         <v>2</v>
       </c>
@@ -1672,6 +1963,9 @@
       <c r="A102" t="s">
         <v>100</v>
       </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
       <c r="D102">
         <v>0</v>
       </c>
@@ -1680,6 +1974,9 @@
       <c r="A103" t="s">
         <v>101</v>
       </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
       <c r="D103">
         <v>1</v>
       </c>
@@ -1688,6 +1985,9 @@
       <c r="A104" t="s">
         <v>102</v>
       </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
       <c r="D104">
         <v>0</v>
       </c>
@@ -1696,6 +1996,9 @@
       <c r="A105" t="s">
         <v>103</v>
       </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
       <c r="D105">
         <v>2</v>
       </c>
@@ -1704,6 +2007,9 @@
       <c r="A106" t="s">
         <v>104</v>
       </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
       <c r="D106">
         <v>1</v>
       </c>
@@ -1712,6 +2018,9 @@
       <c r="A107" t="s">
         <v>105</v>
       </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
       <c r="D107">
         <v>1</v>
       </c>
@@ -1720,6 +2029,9 @@
       <c r="A108" t="s">
         <v>106</v>
       </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
       <c r="D108">
         <v>1</v>
       </c>
@@ -1728,6 +2040,9 @@
       <c r="A109" t="s">
         <v>107</v>
       </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
       <c r="D109">
         <v>2</v>
       </c>
@@ -1736,6 +2051,9 @@
       <c r="A110" t="s">
         <v>108</v>
       </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
       <c r="D110">
         <v>1</v>
       </c>
@@ -1744,6 +2062,9 @@
       <c r="A111" t="s">
         <v>109</v>
       </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
       <c r="D111">
         <v>1</v>
       </c>
@@ -1752,6 +2073,9 @@
       <c r="A112" t="s">
         <v>110</v>
       </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
       <c r="D112">
         <v>0</v>
       </c>
@@ -1760,6 +2084,9 @@
       <c r="A113" t="s">
         <v>111</v>
       </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
       <c r="D113">
         <v>1</v>
       </c>
@@ -1768,6 +2095,9 @@
       <c r="A114" t="s">
         <v>112</v>
       </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
       <c r="D114">
         <v>0</v>
       </c>
@@ -1776,6 +2106,9 @@
       <c r="A115" t="s">
         <v>113</v>
       </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
       <c r="D115">
         <v>1</v>
       </c>
@@ -1784,6 +2117,9 @@
       <c r="A116" t="s">
         <v>114</v>
       </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
       <c r="D116">
         <v>2</v>
       </c>
@@ -1792,6 +2128,9 @@
       <c r="A117" t="s">
         <v>115</v>
       </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
       <c r="D117">
         <v>1</v>
       </c>
@@ -1800,6 +2139,9 @@
       <c r="A118" t="s">
         <v>116</v>
       </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
       <c r="D118">
         <v>2</v>
       </c>
@@ -1808,6 +2150,9 @@
       <c r="A119" t="s">
         <v>117</v>
       </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
       <c r="D119">
         <v>1</v>
       </c>
@@ -1816,6 +2161,9 @@
       <c r="A120" t="s">
         <v>118</v>
       </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
       <c r="D120">
         <v>1</v>
       </c>
@@ -1824,6 +2172,9 @@
       <c r="A121" t="s">
         <v>119</v>
       </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
       <c r="D121">
         <v>0</v>
       </c>
@@ -1832,6 +2183,9 @@
       <c r="A122" t="s">
         <v>120</v>
       </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
       <c r="D122">
         <v>2</v>
       </c>
@@ -1840,6 +2194,9 @@
       <c r="A123" t="s">
         <v>121</v>
       </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
       <c r="D123">
         <v>2</v>
       </c>
@@ -1848,6 +2205,9 @@
       <c r="A124" t="s">
         <v>122</v>
       </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
       <c r="D124">
         <v>1</v>
       </c>
@@ -1856,6 +2216,9 @@
       <c r="A125" t="s">
         <v>123</v>
       </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
       <c r="D125">
         <v>0</v>
       </c>
@@ -1864,6 +2227,9 @@
       <c r="A126" t="s">
         <v>124</v>
       </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
       <c r="D126">
         <v>2</v>
       </c>
@@ -1872,6 +2238,9 @@
       <c r="A127" t="s">
         <v>125</v>
       </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
       <c r="D127">
         <v>2</v>
       </c>
@@ -1880,6 +2249,9 @@
       <c r="A128" t="s">
         <v>126</v>
       </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
       <c r="D128">
         <v>2</v>
       </c>
@@ -1888,6 +2260,9 @@
       <c r="A129" t="s">
         <v>127</v>
       </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
       <c r="D129">
         <v>2</v>
       </c>
@@ -1896,6 +2271,9 @@
       <c r="A130" t="s">
         <v>128</v>
       </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
       <c r="D130">
         <v>1</v>
       </c>
@@ -1904,6 +2282,9 @@
       <c r="A131" t="s">
         <v>129</v>
       </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
       <c r="D131">
         <v>1</v>
       </c>
@@ -1912,6 +2293,9 @@
       <c r="A132" t="s">
         <v>130</v>
       </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
       <c r="D132">
         <v>2</v>
       </c>
@@ -1920,6 +2304,9 @@
       <c r="A133" t="s">
         <v>131</v>
       </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
       <c r="D133">
         <v>2</v>
       </c>
@@ -1928,6 +2315,9 @@
       <c r="A134" t="s">
         <v>132</v>
       </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
       <c r="D134">
         <v>1</v>
       </c>
@@ -1936,6 +2326,9 @@
       <c r="A135" t="s">
         <v>133</v>
       </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
       <c r="D135">
         <v>2</v>
       </c>
@@ -1944,6 +2337,9 @@
       <c r="A136" t="s">
         <v>134</v>
       </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
       <c r="D136">
         <v>1</v>
       </c>
@@ -1952,6 +2348,9 @@
       <c r="A137" t="s">
         <v>135</v>
       </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
       <c r="D137">
         <v>2</v>
       </c>
@@ -1960,6 +2359,9 @@
       <c r="A138" t="s">
         <v>136</v>
       </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
       <c r="D138">
         <v>2</v>
       </c>
@@ -1968,6 +2370,9 @@
       <c r="A139" t="s">
         <v>137</v>
       </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
       <c r="D139">
         <v>1</v>
       </c>
@@ -1976,6 +2381,9 @@
       <c r="A140" t="s">
         <v>138</v>
       </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
       <c r="D140">
         <v>2</v>
       </c>
@@ -1984,6 +2392,9 @@
       <c r="A141" t="s">
         <v>139</v>
       </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
       <c r="D141">
         <v>1</v>
       </c>
@@ -1992,6 +2403,9 @@
       <c r="A142" t="s">
         <v>140</v>
       </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
       <c r="D142">
         <v>1</v>
       </c>
@@ -2000,6 +2414,9 @@
       <c r="A143" t="s">
         <v>141</v>
       </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
       <c r="D143">
         <v>2</v>
       </c>
@@ -2008,6 +2425,9 @@
       <c r="A144" t="s">
         <v>142</v>
       </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
       <c r="D144">
         <v>1</v>
       </c>
@@ -2016,6 +2436,9 @@
       <c r="A145" t="s">
         <v>143</v>
       </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
       <c r="D145">
         <v>2</v>
       </c>
@@ -2024,6 +2447,9 @@
       <c r="A146" t="s">
         <v>144</v>
       </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
       <c r="D146">
         <v>2</v>
       </c>
@@ -2032,6 +2458,9 @@
       <c r="A147" t="s">
         <v>145</v>
       </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
       <c r="D147">
         <v>2</v>
       </c>
@@ -2040,6 +2469,9 @@
       <c r="A148" t="s">
         <v>146</v>
       </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
       <c r="D148">
         <v>1</v>
       </c>
@@ -2048,6 +2480,9 @@
       <c r="A149" t="s">
         <v>147</v>
       </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
       <c r="D149">
         <v>0</v>
       </c>
@@ -2056,6 +2491,9 @@
       <c r="A150" t="s">
         <v>148</v>
       </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
       <c r="D150">
         <v>2</v>
       </c>
@@ -2064,6 +2502,9 @@
       <c r="A151" t="s">
         <v>149</v>
       </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
       <c r="D151">
         <v>2</v>
       </c>
@@ -2072,6 +2513,9 @@
       <c r="A152" t="s">
         <v>150</v>
       </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
       <c r="D152">
         <v>1</v>
       </c>
@@ -2079,6 +2523,9 @@
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
       </c>
       <c r="D153">
         <v>0</v>

--- a/task_1.xlsx
+++ b/task_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julik\Documents\GitHub\fyp2022p02gj2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kateevajakobsen/Documents/GitHub/fyp2022p02gj2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDDE980-9607-421F-A0E6-9618C0DDC956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C53454-4402-2443-9063-75CDDFCEBA0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10908" windowHeight="10248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -515,13 +514,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -544,11 +549,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,25 +832,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -852,8 +858,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C3" t="s">
@@ -869,11 +875,11 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4">
@@ -886,10 +892,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -900,10 +909,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
       <c r="C6">
         <v>0</v>
       </c>
@@ -914,10 +926,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
       <c r="C7">
         <v>0</v>
       </c>
@@ -925,10 +940,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
       <c r="C8">
         <v>1</v>
       </c>
@@ -936,10 +954,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
       <c r="C9">
         <v>2</v>
       </c>
@@ -947,10 +968,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
       <c r="C10">
         <v>1</v>
       </c>
@@ -958,10 +982,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -969,10 +996,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -980,10 +1010,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
@@ -991,10 +1024,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>0</v>
       </c>
@@ -1002,10 +1038,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>0</v>
       </c>
@@ -1013,10 +1052,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -1024,10 +1066,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
       <c r="C17">
         <v>1</v>
       </c>
@@ -1035,10 +1080,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
       <c r="C18">
         <v>0</v>
       </c>
@@ -1046,10 +1094,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
       <c r="C19">
         <v>0</v>
       </c>
@@ -1057,10 +1108,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
       <c r="C20">
         <v>0</v>
       </c>
@@ -1068,10 +1122,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
       <c r="C21">
         <v>1</v>
       </c>
@@ -1079,10 +1136,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
       <c r="C22">
         <v>1</v>
       </c>
@@ -1090,10 +1150,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>0</v>
       </c>
@@ -1101,10 +1164,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
       <c r="C24">
         <v>0</v>
       </c>
@@ -1112,10 +1178,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
       <c r="C25">
         <v>0</v>
       </c>
@@ -1123,10 +1192,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>0</v>
       </c>
@@ -1134,10 +1206,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
       <c r="C27">
         <v>1</v>
       </c>
@@ -1145,10 +1220,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
       <c r="C28">
         <v>2</v>
       </c>
@@ -1156,10 +1234,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>1</v>
       </c>
@@ -1167,10 +1248,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>1</v>
       </c>
@@ -1178,10 +1262,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
       <c r="C31">
         <v>0</v>
       </c>
@@ -1189,10 +1276,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>1</v>
       </c>
@@ -1200,10 +1290,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
       <c r="C33">
         <v>2</v>
       </c>
@@ -1211,10 +1304,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
       <c r="C34">
         <v>2</v>
       </c>
@@ -1222,10 +1318,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
       <c r="C35">
         <v>0</v>
       </c>
@@ -1233,10 +1332,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
       <c r="C36">
         <v>0</v>
       </c>
@@ -1244,10 +1346,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
       <c r="C37">
         <v>0</v>
       </c>
@@ -1255,10 +1360,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
       <c r="C38">
         <v>1</v>
       </c>
@@ -1266,10 +1374,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
       <c r="C39">
         <v>1</v>
       </c>
@@ -1277,10 +1388,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
       <c r="C40">
         <v>2</v>
       </c>
@@ -1288,10 +1402,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>0</v>
       </c>
@@ -1299,10 +1416,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>1</v>
       </c>
@@ -1310,10 +1430,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
       <c r="C43">
         <v>1</v>
       </c>
@@ -1321,10 +1444,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>0</v>
       </c>
@@ -1332,10 +1458,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>0</v>
       </c>
@@ -1343,10 +1472,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
       <c r="C46">
         <v>0</v>
       </c>
@@ -1354,10 +1486,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
       <c r="C47">
         <v>0</v>
       </c>
@@ -1365,10 +1500,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
       <c r="C48">
         <v>0</v>
       </c>
@@ -1376,10 +1514,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
       <c r="C49">
         <v>1</v>
       </c>
@@ -1387,10 +1528,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
       <c r="C50">
         <v>1</v>
       </c>
@@ -1398,10 +1542,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
       <c r="C51">
         <v>2</v>
       </c>
@@ -1409,10 +1556,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
       <c r="C52">
         <v>0</v>
       </c>
@@ -1420,10 +1570,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
       <c r="C53">
         <v>2</v>
       </c>
@@ -1431,10 +1584,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
       <c r="C54">
         <v>2</v>
       </c>
@@ -1442,10 +1598,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
       <c r="C55">
         <v>0</v>
       </c>
@@ -1453,10 +1612,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>2</v>
       </c>
@@ -1464,10 +1626,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
       <c r="C57">
         <v>1</v>
       </c>
@@ -1475,10 +1640,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
       <c r="C58">
         <v>1</v>
       </c>
@@ -1486,10 +1654,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
       <c r="C59">
         <v>1</v>
       </c>
@@ -1497,10 +1668,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
       <c r="C60">
         <v>1</v>
       </c>
@@ -1508,10 +1682,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
       <c r="C61">
         <v>1</v>
       </c>
@@ -1519,10 +1696,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
       <c r="C62">
         <v>1</v>
       </c>
@@ -1530,10 +1710,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
       <c r="C63">
         <v>2</v>
       </c>
@@ -1541,10 +1724,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
       <c r="C64">
         <v>1</v>
       </c>
@@ -1552,10 +1738,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
       <c r="C65">
         <v>2</v>
       </c>
@@ -1563,10 +1752,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
+      <c r="B66" s="1">
+        <v>2</v>
+      </c>
       <c r="C66">
         <v>1</v>
       </c>
@@ -1574,10 +1766,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
       <c r="C67">
         <v>0</v>
       </c>
@@ -1585,10 +1780,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
       <c r="C68">
         <v>0</v>
       </c>
@@ -1596,10 +1794,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
       <c r="C69">
         <v>0</v>
       </c>
@@ -1607,10 +1808,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
       <c r="C70">
         <v>0</v>
       </c>
@@ -1618,10 +1822,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
       <c r="C71">
         <v>1</v>
       </c>
@@ -1629,10 +1836,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
       <c r="C72">
         <v>2</v>
       </c>
@@ -1640,10 +1850,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
       <c r="C73">
         <v>1</v>
       </c>
@@ -1651,10 +1864,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
       <c r="C74">
         <v>1</v>
       </c>
@@ -1662,10 +1878,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
       <c r="C75">
         <v>1</v>
       </c>
@@ -1673,10 +1892,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
       <c r="C76">
         <v>2</v>
       </c>
@@ -1684,10 +1906,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
       <c r="C77">
         <v>2</v>
       </c>
@@ -1695,10 +1920,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
+      <c r="B78" s="1">
+        <v>2</v>
+      </c>
       <c r="C78">
         <v>2</v>
       </c>
@@ -1706,10 +1934,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
       <c r="C79">
         <v>0</v>
       </c>
@@ -1717,10 +1948,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
+      <c r="B80" s="1">
+        <v>2</v>
+      </c>
       <c r="C80">
         <v>1</v>
       </c>
@@ -1728,10 +1962,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
       <c r="C81">
         <v>0</v>
       </c>
@@ -1739,10 +1976,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
       <c r="C82">
         <v>0</v>
       </c>
@@ -1750,10 +1990,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
+      <c r="B83" s="1">
+        <v>2</v>
+      </c>
       <c r="C83">
         <v>1</v>
       </c>
@@ -1761,10 +2004,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
       <c r="C84">
         <v>1</v>
       </c>
@@ -1772,10 +2018,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
       <c r="C85">
         <v>0</v>
       </c>
@@ -1783,10 +2032,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
       <c r="C86">
         <v>0</v>
       </c>
@@ -1794,10 +2046,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
       <c r="C87">
         <v>0</v>
       </c>
@@ -1805,10 +2060,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
       <c r="C88">
         <v>1</v>
       </c>
@@ -1816,10 +2074,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
+      <c r="B89" s="1">
+        <v>2</v>
+      </c>
       <c r="C89">
         <v>2</v>
       </c>
@@ -1827,10 +2088,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
       <c r="C90">
         <v>1</v>
       </c>
@@ -1838,10 +2102,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
       <c r="C91">
         <v>0</v>
       </c>
@@ -1849,10 +2116,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
+      <c r="B92" s="1">
+        <v>2</v>
+      </c>
       <c r="C92">
         <v>1</v>
       </c>
@@ -1860,10 +2130,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
+      <c r="B93" s="1">
+        <v>2</v>
+      </c>
       <c r="C93">
         <v>0</v>
       </c>
@@ -1871,10 +2144,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
+      <c r="B94" s="1">
+        <v>2</v>
+      </c>
       <c r="C94">
         <v>1</v>
       </c>
@@ -1882,10 +2158,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
       <c r="C95">
         <v>0</v>
       </c>
@@ -1893,10 +2172,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
       <c r="C96">
         <v>1</v>
       </c>
@@ -1904,10 +2186,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
       <c r="C97">
         <v>0</v>
       </c>
@@ -1915,10 +2200,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
       <c r="C98">
         <v>2</v>
       </c>
@@ -1926,10 +2214,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
       <c r="C99">
         <v>1</v>
       </c>
@@ -1937,10 +2228,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
       <c r="C100">
         <v>2</v>
       </c>
@@ -1948,10 +2242,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
       <c r="C101">
         <v>2</v>
       </c>
@@ -1959,10 +2256,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
       <c r="C102">
         <v>0</v>
       </c>
@@ -1970,10 +2270,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
+      <c r="B103" s="1">
+        <v>2</v>
+      </c>
       <c r="C103">
         <v>1</v>
       </c>
@@ -1981,10 +2284,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
       <c r="C104">
         <v>0</v>
       </c>
@@ -1992,10 +2298,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
+      <c r="B105" s="1">
+        <v>2</v>
+      </c>
       <c r="C105">
         <v>2</v>
       </c>
@@ -2003,10 +2312,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
       <c r="C106">
         <v>2</v>
       </c>
@@ -2014,10 +2326,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
+      <c r="B107" s="1">
+        <v>2</v>
+      </c>
       <c r="C107">
         <v>1</v>
       </c>
@@ -2025,10 +2340,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
       <c r="C108">
         <v>1</v>
       </c>
@@ -2036,10 +2354,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
       <c r="C109">
         <v>2</v>
       </c>
@@ -2047,10 +2368,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
+      <c r="B110" s="1">
+        <v>2</v>
+      </c>
       <c r="C110">
         <v>1</v>
       </c>
@@ -2058,10 +2382,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
+      <c r="B111" s="1">
+        <v>2</v>
+      </c>
       <c r="C111">
         <v>2</v>
       </c>
@@ -2069,10 +2396,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
+      <c r="B112" s="1">
+        <v>2</v>
+      </c>
       <c r="C112">
         <v>1</v>
       </c>
@@ -2080,10 +2410,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
       <c r="C113">
         <v>1</v>
       </c>
@@ -2091,10 +2424,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
       <c r="C114">
         <v>0</v>
       </c>
@@ -2102,10 +2438,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
+      <c r="B115" s="1">
+        <v>2</v>
+      </c>
       <c r="C115">
         <v>1</v>
       </c>
@@ -2113,10 +2452,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
+      <c r="B116" s="1">
+        <v>2</v>
+      </c>
       <c r="C116">
         <v>2</v>
       </c>
@@ -2124,10 +2466,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
+      <c r="B117" s="1">
+        <v>2</v>
+      </c>
       <c r="C117">
         <v>1</v>
       </c>
@@ -2135,10 +2480,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
       <c r="C118">
         <v>2</v>
       </c>
@@ -2146,10 +2494,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
+      <c r="B119" s="1">
+        <v>2</v>
+      </c>
       <c r="C119">
         <v>1</v>
       </c>
@@ -2157,10 +2508,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
+      <c r="B120" s="1">
+        <v>2</v>
+      </c>
       <c r="C120">
         <v>1</v>
       </c>
@@ -2168,10 +2522,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
+      <c r="B121" s="1">
+        <v>2</v>
+      </c>
       <c r="C121">
         <v>0</v>
       </c>
@@ -2179,10 +2536,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
+      <c r="B122" s="1">
+        <v>2</v>
+      </c>
       <c r="C122">
         <v>2</v>
       </c>
@@ -2190,10 +2550,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
       <c r="C123">
         <v>2</v>
       </c>
@@ -2201,10 +2564,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
       <c r="C124">
         <v>1</v>
       </c>
@@ -2212,10 +2578,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
+      <c r="B125" s="1">
+        <v>2</v>
+      </c>
       <c r="C125">
         <v>0</v>
       </c>
@@ -2223,10 +2592,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
+      <c r="B126" s="1">
+        <v>2</v>
+      </c>
       <c r="C126">
         <v>1</v>
       </c>
@@ -2234,10 +2606,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
+      <c r="B127" s="1">
+        <v>2</v>
+      </c>
       <c r="C127">
         <v>2</v>
       </c>
@@ -2245,10 +2620,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
       <c r="C128">
         <v>2</v>
       </c>
@@ -2256,10 +2634,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
+      <c r="B129" s="1">
+        <v>2</v>
+      </c>
       <c r="C129">
         <v>2</v>
       </c>
@@ -2267,10 +2648,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
+      <c r="B130" s="1">
+        <v>2</v>
+      </c>
       <c r="C130">
         <v>1</v>
       </c>
@@ -2278,10 +2662,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
+      <c r="B131" s="1">
+        <v>2</v>
+      </c>
       <c r="C131">
         <v>2</v>
       </c>
@@ -2289,10 +2676,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
+      <c r="B132" s="1">
+        <v>2</v>
+      </c>
       <c r="C132">
         <v>2</v>
       </c>
@@ -2300,10 +2690,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
       <c r="C133">
         <v>2</v>
       </c>
@@ -2311,10 +2704,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
       <c r="C134">
         <v>1</v>
       </c>
@@ -2322,10 +2718,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
+      <c r="B135" s="1">
+        <v>2</v>
+      </c>
       <c r="C135">
         <v>2</v>
       </c>
@@ -2333,10 +2732,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
+      <c r="B136" s="1">
+        <v>1</v>
+      </c>
       <c r="C136">
         <v>1</v>
       </c>
@@ -2344,10 +2746,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
+      <c r="B137" s="1">
+        <v>2</v>
+      </c>
       <c r="C137">
         <v>2</v>
       </c>
@@ -2355,10 +2760,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
+      <c r="B138" s="1">
+        <v>2</v>
+      </c>
       <c r="C138">
         <v>2</v>
       </c>
@@ -2366,10 +2774,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
       <c r="C139">
         <v>2</v>
       </c>
@@ -2377,10 +2788,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
+      <c r="B140" s="1">
+        <v>2</v>
+      </c>
       <c r="C140">
         <v>2</v>
       </c>
@@ -2388,10 +2802,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
+      <c r="B141" s="1">
+        <v>2</v>
+      </c>
       <c r="C141">
         <v>2</v>
       </c>
@@ -2399,10 +2816,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
+      <c r="B142" s="1">
+        <v>2</v>
+      </c>
       <c r="C142">
         <v>1</v>
       </c>
@@ -2410,10 +2830,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
+      <c r="B143" s="1">
+        <v>2</v>
+      </c>
       <c r="C143">
         <v>2</v>
       </c>
@@ -2421,10 +2844,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
+      <c r="B144" s="1">
+        <v>2</v>
+      </c>
       <c r="C144">
         <v>2</v>
       </c>
@@ -2432,10 +2858,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
+      <c r="B145" s="1">
+        <v>2</v>
+      </c>
       <c r="C145">
         <v>2</v>
       </c>
@@ -2443,10 +2872,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
+      <c r="B146" s="1">
+        <v>2</v>
+      </c>
       <c r="C146">
         <v>2</v>
       </c>
@@ -2454,10 +2886,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
+      <c r="B147" s="1">
+        <v>2</v>
+      </c>
       <c r="C147">
         <v>2</v>
       </c>
@@ -2465,10 +2900,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
+      <c r="B148" s="1">
+        <v>2</v>
+      </c>
       <c r="C148">
         <v>1</v>
       </c>
@@ -2476,10 +2914,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
+      <c r="B149" s="1">
+        <v>1</v>
+      </c>
       <c r="C149">
         <v>1</v>
       </c>
@@ -2487,10 +2928,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
+      <c r="B150" s="1">
+        <v>2</v>
+      </c>
       <c r="C150">
         <v>2</v>
       </c>
@@ -2498,10 +2942,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
+      <c r="B151" s="1">
+        <v>2</v>
+      </c>
       <c r="C151">
         <v>2</v>
       </c>
@@ -2509,10 +2956,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
+      <c r="B152" s="1">
+        <v>2</v>
+      </c>
       <c r="C152">
         <v>2</v>
       </c>
@@ -2520,16 +2970,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B154" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/task_1.xlsx
+++ b/task_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kateevajakobsen/Documents/GitHub/fyp2022p02gj2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ituniversity-my.sharepoint.com/personal/srde_itu_dk/Documents/II/FYP/p02/fyp2022p02gj2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C53454-4402-2443-9063-75CDDFCEBA0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{B8C53454-4402-2443-9063-75CDDFCEBA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E6F4B65-9FE8-4BF8-B3B9-8C7248DB883E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -834,23 +834,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>153</v>
       </c>
@@ -875,7 +875,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -939,8 +939,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -953,8 +956,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -967,8 +973,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -981,8 +990,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -995,8 +1007,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1009,8 +1024,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1023,8 +1041,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1037,8 +1058,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1051,8 +1075,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1065,8 +1092,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1079,8 +1109,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1093,8 +1126,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1107,8 +1143,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1121,8 +1160,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1135,8 +1177,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1149,8 +1194,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1163,8 +1211,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1177,8 +1228,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1191,8 +1245,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1205,8 +1262,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1219,8 +1279,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1233,8 +1296,11 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1247,8 +1313,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1261,8 +1330,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1275,8 +1347,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1289,8 +1364,11 @@
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1303,8 +1381,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1317,8 +1398,11 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1331,8 +1415,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1345,8 +1432,11 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1359,8 +1449,11 @@
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1373,8 +1466,11 @@
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1387,8 +1483,11 @@
       <c r="D39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1401,8 +1500,11 @@
       <c r="D40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1415,8 +1517,11 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1429,8 +1534,11 @@
       <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1443,8 +1551,11 @@
       <c r="D43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1457,8 +1568,11 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1471,8 +1585,11 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1485,8 +1602,11 @@
       <c r="D46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1499,8 +1619,11 @@
       <c r="D47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1513,8 +1636,11 @@
       <c r="D48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1527,8 +1653,11 @@
       <c r="D49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1541,8 +1670,11 @@
       <c r="D50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1555,8 +1687,11 @@
       <c r="D51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1569,8 +1704,11 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1583,8 +1721,11 @@
       <c r="D53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1597,8 +1738,11 @@
       <c r="D54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1611,8 +1755,11 @@
       <c r="D55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1625,8 +1772,11 @@
       <c r="D56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1639,8 +1789,11 @@
       <c r="D57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1653,8 +1806,11 @@
       <c r="D58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1667,8 +1823,11 @@
       <c r="D59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1681,8 +1840,11 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1695,8 +1857,11 @@
       <c r="D61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1709,8 +1874,11 @@
       <c r="D62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1723,8 +1891,11 @@
       <c r="D63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1737,8 +1908,11 @@
       <c r="D64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1751,8 +1925,11 @@
       <c r="D65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1765,8 +1942,11 @@
       <c r="D66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1779,8 +1959,11 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1793,8 +1976,11 @@
       <c r="D68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1807,8 +1993,11 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1821,8 +2010,11 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1835,8 +2027,11 @@
       <c r="D71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1849,8 +2044,11 @@
       <c r="D72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1863,8 +2061,11 @@
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1877,8 +2078,11 @@
       <c r="D74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1891,8 +2095,11 @@
       <c r="D75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1905,8 +2112,11 @@
       <c r="D76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1919,8 +2129,11 @@
       <c r="D77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1933,8 +2146,11 @@
       <c r="D78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1947,8 +2163,11 @@
       <c r="D79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -1961,8 +2180,11 @@
       <c r="D80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -1975,8 +2197,11 @@
       <c r="D81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1989,8 +2214,11 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2003,8 +2231,11 @@
       <c r="D83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2017,8 +2248,11 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2031,8 +2265,11 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2045,8 +2282,11 @@
       <c r="D86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2059,8 +2299,11 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2073,8 +2316,11 @@
       <c r="D88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2087,8 +2333,11 @@
       <c r="D89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2101,8 +2350,11 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2115,8 +2367,11 @@
       <c r="D91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2129,8 +2384,11 @@
       <c r="D92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2143,8 +2401,11 @@
       <c r="D93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2157,8 +2418,11 @@
       <c r="D94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2171,8 +2435,11 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2185,8 +2452,11 @@
       <c r="D96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2199,8 +2469,11 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2213,8 +2486,11 @@
       <c r="D98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2227,8 +2503,11 @@
       <c r="D99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2241,8 +2520,11 @@
       <c r="D100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2255,8 +2537,11 @@
       <c r="D101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2269,8 +2554,11 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2283,8 +2571,11 @@
       <c r="D103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2297,8 +2588,11 @@
       <c r="D104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2311,8 +2605,11 @@
       <c r="D105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2325,8 +2622,11 @@
       <c r="D106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2339,8 +2639,11 @@
       <c r="D107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2353,8 +2656,11 @@
       <c r="D108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -2367,8 +2673,11 @@
       <c r="D109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2381,8 +2690,11 @@
       <c r="D110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2395,8 +2707,11 @@
       <c r="D111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2409,8 +2724,11 @@
       <c r="D112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2423,8 +2741,11 @@
       <c r="D113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2437,8 +2758,11 @@
       <c r="D114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2451,8 +2775,11 @@
       <c r="D115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2465,8 +2792,11 @@
       <c r="D116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2479,8 +2809,11 @@
       <c r="D117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2493,8 +2826,11 @@
       <c r="D118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2507,8 +2843,11 @@
       <c r="D119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2521,8 +2860,11 @@
       <c r="D120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2535,8 +2877,11 @@
       <c r="D121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -2549,8 +2894,11 @@
       <c r="D122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -2563,8 +2911,11 @@
       <c r="D123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -2577,8 +2928,11 @@
       <c r="D124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -2591,8 +2945,11 @@
       <c r="D125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -2605,8 +2962,11 @@
       <c r="D126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -2619,8 +2979,11 @@
       <c r="D127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -2633,8 +2996,11 @@
       <c r="D128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -2647,8 +3013,11 @@
       <c r="D129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -2661,8 +3030,11 @@
       <c r="D130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -2675,8 +3047,11 @@
       <c r="D131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -2689,8 +3064,11 @@
       <c r="D132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -2703,8 +3081,11 @@
       <c r="D133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -2717,8 +3098,11 @@
       <c r="D134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -2731,8 +3115,11 @@
       <c r="D135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -2745,8 +3132,11 @@
       <c r="D136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -2759,8 +3149,11 @@
       <c r="D137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -2773,8 +3166,11 @@
       <c r="D138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -2787,8 +3183,11 @@
       <c r="D139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -2801,8 +3200,11 @@
       <c r="D140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -2815,8 +3217,11 @@
       <c r="D141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -2829,8 +3234,11 @@
       <c r="D142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -2843,8 +3251,11 @@
       <c r="D143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -2857,8 +3268,11 @@
       <c r="D144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -2871,8 +3285,11 @@
       <c r="D145">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -2885,8 +3302,11 @@
       <c r="D146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -2899,8 +3319,11 @@
       <c r="D147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -2913,8 +3336,11 @@
       <c r="D148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -2927,8 +3353,11 @@
       <c r="D149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -2941,8 +3370,11 @@
       <c r="D150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -2955,8 +3387,11 @@
       <c r="D151">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -2969,8 +3404,11 @@
       <c r="D152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -2983,8 +3421,11 @@
       <c r="D153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B154" s="1"/>
     </row>
   </sheetData>

--- a/task_1.xlsx
+++ b/task_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ituniversity-my.sharepoint.com/personal/srde_itu_dk/Documents/II/FYP/p02/fyp2022p02gj2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alteafogh/Desktop/python/fyp/fyp2022p02gj2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{B8C53454-4402-2443-9063-75CDDFCEBA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E6F4B65-9FE8-4BF8-B3B9-8C7248DB883E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC195AFE-4A53-9B4A-8CA4-4745DF61183F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -834,23 +831,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -858,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>153</v>
       </c>
@@ -875,7 +872,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -891,8 +888,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -908,8 +908,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -925,8 +928,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -942,8 +948,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -959,8 +968,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -976,8 +988,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1008,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1028,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1027,8 +1048,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1044,8 +1068,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1061,8 +1088,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1078,8 +1108,11 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1095,8 +1128,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1148,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1129,8 +1168,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1146,8 +1188,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1163,8 +1208,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1180,8 +1228,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1197,8 +1248,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1214,8 +1268,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1231,8 +1288,11 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1248,8 +1308,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1265,8 +1328,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1282,8 +1348,11 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1299,8 +1368,11 @@
       <c r="E28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1316,8 +1388,11 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1333,8 +1408,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1350,8 +1428,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1367,8 +1448,11 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1384,8 +1468,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1401,8 +1488,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1418,8 +1508,11 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1435,8 +1528,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1452,8 +1548,11 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1469,8 +1568,11 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1486,8 +1588,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1503,8 +1608,11 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1520,8 +1628,11 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1537,8 +1648,11 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1554,8 +1668,11 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1571,8 +1688,11 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1588,8 +1708,11 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1605,8 +1728,11 @@
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1622,8 +1748,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1639,8 +1768,11 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1656,8 +1788,11 @@
       <c r="E49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1673,8 +1808,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1690,8 +1828,11 @@
       <c r="E51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1707,8 +1848,11 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1724,8 +1868,11 @@
       <c r="E53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1741,8 +1888,11 @@
       <c r="E54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1758,8 +1908,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1775,8 +1928,11 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1792,8 +1948,11 @@
       <c r="E57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1809,8 +1968,11 @@
       <c r="E58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1826,8 +1988,11 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1843,8 +2008,11 @@
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1860,8 +2028,11 @@
       <c r="E61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1877,8 +2048,11 @@
       <c r="E62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1894,8 +2068,11 @@
       <c r="E63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1911,8 +2088,11 @@
       <c r="E64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1928,8 +2108,11 @@
       <c r="E65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1945,8 +2128,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1962,8 +2148,11 @@
       <c r="E67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1979,8 +2168,11 @@
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1996,8 +2188,11 @@
       <c r="E69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2013,8 +2208,11 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2030,8 +2228,11 @@
       <c r="E71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2047,8 +2248,11 @@
       <c r="E72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2064,8 +2268,11 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2081,8 +2288,11 @@
       <c r="E74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2098,8 +2308,11 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2115,8 +2328,11 @@
       <c r="E76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2132,8 +2348,11 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2149,8 +2368,11 @@
       <c r="E78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2166,8 +2388,11 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2183,8 +2408,11 @@
       <c r="E80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2200,8 +2428,11 @@
       <c r="E81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2217,8 +2448,11 @@
       <c r="E82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2234,8 +2468,11 @@
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2251,8 +2488,11 @@
       <c r="E84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2268,8 +2508,11 @@
       <c r="E85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2285,8 +2528,11 @@
       <c r="E86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2302,8 +2548,11 @@
       <c r="E87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2319,8 +2568,11 @@
       <c r="E88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2336,8 +2588,11 @@
       <c r="E89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2353,8 +2608,11 @@
       <c r="E90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2370,8 +2628,11 @@
       <c r="E91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2387,8 +2648,11 @@
       <c r="E92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2404,8 +2668,11 @@
       <c r="E93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2421,8 +2688,11 @@
       <c r="E94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2438,8 +2708,11 @@
       <c r="E95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2455,8 +2728,11 @@
       <c r="E96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2472,8 +2748,11 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2489,8 +2768,11 @@
       <c r="E98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2506,8 +2788,11 @@
       <c r="E99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2523,8 +2808,11 @@
       <c r="E100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2540,8 +2828,11 @@
       <c r="E101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2557,8 +2848,11 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2574,8 +2868,11 @@
       <c r="E103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2591,8 +2888,11 @@
       <c r="E104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2608,8 +2908,11 @@
       <c r="E105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2625,8 +2928,11 @@
       <c r="E106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2642,8 +2948,11 @@
       <c r="E107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2659,8 +2968,11 @@
       <c r="E108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -2676,8 +2988,11 @@
       <c r="E109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2693,8 +3008,11 @@
       <c r="E110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2710,8 +3028,11 @@
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2727,8 +3048,11 @@
       <c r="E112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2744,8 +3068,11 @@
       <c r="E113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2761,8 +3088,11 @@
       <c r="E114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2778,8 +3108,11 @@
       <c r="E115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2795,8 +3128,11 @@
       <c r="E116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2812,8 +3148,11 @@
       <c r="E117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2829,8 +3168,11 @@
       <c r="E118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2846,8 +3188,11 @@
       <c r="E119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2863,8 +3208,11 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2880,8 +3228,11 @@
       <c r="E121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -2897,8 +3248,11 @@
       <c r="E122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -2914,8 +3268,11 @@
       <c r="E123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -2931,8 +3288,11 @@
       <c r="E124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -2948,8 +3308,11 @@
       <c r="E125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -2965,8 +3328,11 @@
       <c r="E126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -2982,8 +3348,11 @@
       <c r="E127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -2999,8 +3368,11 @@
       <c r="E128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -3016,8 +3388,11 @@
       <c r="E129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -3033,8 +3408,11 @@
       <c r="E130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -3050,8 +3428,11 @@
       <c r="E131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3067,8 +3448,11 @@
       <c r="E132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -3084,8 +3468,11 @@
       <c r="E133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -3101,8 +3488,11 @@
       <c r="E134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3118,8 +3508,11 @@
       <c r="E135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3135,8 +3528,11 @@
       <c r="E136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -3152,8 +3548,11 @@
       <c r="E137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -3169,8 +3568,11 @@
       <c r="E138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -3186,8 +3588,11 @@
       <c r="E139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -3203,8 +3608,11 @@
       <c r="E140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3220,8 +3628,11 @@
       <c r="E141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -3237,8 +3648,11 @@
       <c r="E142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -3254,8 +3668,11 @@
       <c r="E143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -3271,8 +3688,11 @@
       <c r="E144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -3288,8 +3708,11 @@
       <c r="E145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -3305,8 +3728,11 @@
       <c r="E146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -3322,8 +3748,11 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -3339,8 +3768,11 @@
       <c r="E148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -3356,8 +3788,11 @@
       <c r="E149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -3373,8 +3808,11 @@
       <c r="E150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -3390,8 +3828,11 @@
       <c r="E151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -3407,8 +3848,11 @@
       <c r="E152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -3424,8 +3868,11 @@
       <c r="E153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B154" s="1"/>
     </row>
   </sheetData>
